--- a/データ検証/EIPA/xBRL/xBRLGL.xlsx
+++ b/データ検証/EIPA/xBRL/xBRLGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/EIPA/xBRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A0C8E8-D945-5D4E-A6B3-C7918A9BB00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EA9016-64CD-134E-A97E-FE58ECC774D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{53A4F89F-2B99-A04C-B8BA-7FC0A02B1C73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{53A4F89F-2B99-A04C-B8BA-7FC0A02B1C73}"/>
   </bookViews>
   <sheets>
     <sheet name="xBRLGL_PLT2EN" sheetId="11" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="4011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="4012">
   <si>
     <t>cor</t>
   </si>
@@ -12360,6 +12360,10 @@
   </si>
   <si>
     <t>Amount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>busG-3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -13132,8 +13136,8 @@
   </sheetPr>
   <dimension ref="A1:Z210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="N126" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="N37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R131" sqref="R131"/>
@@ -33407,9 +33411,9 @@
   </sheetPr>
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
@@ -39597,7 +39601,7 @@
         <v>16</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>762</v>
+        <v>4011</v>
       </c>
       <c r="F172" s="47" t="s">
         <v>222</v>
